--- a/ResultadoEleicoesDistritos/VISEU_LAMEGO.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_LAMEGO.xlsx
@@ -597,64 +597,64 @@
         <v>6946</v>
       </c>
       <c r="H2" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I2" t="n">
-        <v>676</v>
+        <v>737</v>
       </c>
       <c r="J2" t="n">
-        <v>2807</v>
+        <v>2817</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N2" t="n">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S2" t="n">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="T2" t="n">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="U2" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="V2" t="n">
-        <v>4451</v>
+        <v>4523</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4496</v>
+        <v>4328</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
